--- a/biology/Biologie cellulaire et moléculaire/Nombre_de_chromosomes_de_différentes_espèces/Nombre_de_chromosomes_de_différentes_espèces.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Nombre_de_chromosomes_de_différentes_espèces/Nombre_de_chromosomes_de_différentes_espèces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nombre_de_chromosomes_de_diff%C3%A9rentes_esp%C3%A8ces</t>
+          <t>Nombre_de_chromosomes_de_différentes_espèces</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article recense le nombre de chromosomes de différents eucaryotes : protistes, champignons, plantes et animaux. La liste n'a pas vocation à être exhaustive, mais peut être considérée comme un échantillon de différents groupes.
 Ni le nombre de chromosomes, ni la taille du génome (quantité d'ADN contenue dans une copie de génome), ni le nombre de gènes n'est corrélé avec la complexité de l'organisme : c'est le paradoxe de la valeur C.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nombre_de_chromosomes_de_diff%C3%A9rentes_esp%C3%A8ces</t>
+          <t>Nombre_de_chromosomes_de_différentes_espèces</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Tableau d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sauf indication contraire, dans la colonne des remarques, les organismes cités sont supposés diploïdes et le nombre de chromosomes correspond à 2n.
 Le tableau peut être trié par nom commun, nom scientifique, ou nombre de chromosomes (par défaut).
